--- a/src/test/Excels/UserInformationServiceTest/userInformationTest.xlsx
+++ b/src/test/Excels/UserInformationServiceTest/userInformationTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>userId</t>
   </si>
@@ -53,9 +53,6 @@
   <si>
     <t>dbError选项只是用于调整数据库是否发生返回错误，实际并没有这个参数</t>
   </si>
-  <si>
-    <t>error occurred in database</t>
-  </si>
 </sst>
 </file>
 
@@ -64,10 +61,10 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,33 +74,72 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -111,15 +147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,7 +155,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,92 +183,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +243,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,13 +291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,139 +309,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,17 +438,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -475,6 +454,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,24 +514,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,159 +527,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1046,7 +1033,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1076,8 +1063,8 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
@@ -1104,8 +1091,8 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -1132,8 +1119,8 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -1160,8 +1147,8 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -1171,13 +1158,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1186,88 +1173,88 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
